--- a/TOST.xlsx
+++ b/TOST.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martinshkreli/code/models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC76AD1B-959D-4A6F-B6F7-0E72074B851B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{520FD5EB-8860-434C-BEF2-C134E6210B34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-42750" yWindow="1710" windowWidth="25605" windowHeight="17820" activeTab="1" xr2:uid="{DC4A1546-EBD5-4FB0-9E22-675482048C3B}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{DC4A1546-EBD5-4FB0-9E22-675482048C3B}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="43">
   <si>
     <t>Price</t>
   </si>
@@ -615,15 +615,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F2D736E-C9D5-4EC4-B6F4-232F40346A1A}">
-  <dimension ref="J2:K10"/>
+  <dimension ref="J2:L10"/>
   <sheetViews>
-    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="2" spans="10:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="10:12" x14ac:dyDescent="0.15">
       <c r="J2" t="s">
         <v>0</v>
       </c>
@@ -631,15 +631,18 @@
         <v>27.5</v>
       </c>
     </row>
-    <row r="3" spans="10:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="10:12" x14ac:dyDescent="0.15">
       <c r="J3" t="s">
         <v>1</v>
       </c>
       <c r="K3" s="2">
         <v>535.6</v>
       </c>
-    </row>
-    <row r="4" spans="10:11" x14ac:dyDescent="0.2">
+      <c r="L3" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="10:12" x14ac:dyDescent="0.15">
       <c r="J4" t="s">
         <v>2</v>
       </c>
@@ -648,7 +651,7 @@
         <v>14729</v>
       </c>
     </row>
-    <row r="5" spans="10:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="10:12" x14ac:dyDescent="0.15">
       <c r="J5" t="s">
         <v>3</v>
       </c>
@@ -656,16 +659,22 @@
         <f>578+537</f>
         <v>1115</v>
       </c>
-    </row>
-    <row r="6" spans="10:11" x14ac:dyDescent="0.2">
+      <c r="L5" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="10:12" x14ac:dyDescent="0.15">
       <c r="J6" t="s">
         <v>4</v>
       </c>
       <c r="K6" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="10:11" x14ac:dyDescent="0.2">
+      <c r="L6" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="10:12" x14ac:dyDescent="0.15">
       <c r="J7" t="s">
         <v>5</v>
       </c>
@@ -674,7 +683,7 @@
         <v>13614</v>
       </c>
     </row>
-    <row r="10" spans="10:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="10:12" x14ac:dyDescent="0.15">
       <c r="J10" t="s">
         <v>42</v>
       </c>
@@ -688,26 +697,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8CE8E1F-2C33-4B6B-9BBC-EA165705D1AC}">
   <dimension ref="A1:Y30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Y30" sqref="Y30"/>
+      <selection pane="bottomRight" activeCell="T6" sqref="T6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="14" width="9.140625" style="3"/>
+    <col min="3" max="14" width="9.1640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.15">
       <c r="H2" s="3" t="s">
         <v>11</v>
       </c>
@@ -757,7 +766,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
         <v>40</v>
       </c>
@@ -798,7 +807,7 @@
         <v>165.2</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
         <v>41</v>
       </c>
@@ -815,14 +824,14 @@
       <c r="R4" s="3"/>
       <c r="S4" s="3"/>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.15">
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
       <c r="Q5" s="3"/>
       <c r="R5" s="3"/>
       <c r="S5" s="3"/>
     </row>
-    <row r="6" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
@@ -875,7 +884,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="7" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B7" s="2" t="s">
         <v>9</v>
       </c>
@@ -928,7 +937,7 @@
         <v>4092</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
         <v>10</v>
       </c>
@@ -973,7 +982,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="9" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B9" s="5" t="s">
         <v>6</v>
       </c>
@@ -1053,7 +1062,7 @@
         <v>4981</v>
       </c>
     </row>
-    <row r="10" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B10" s="2" t="s">
         <v>25</v>
       </c>
@@ -1124,7 +1133,7 @@
         <v>3833.2799999999997</v>
       </c>
     </row>
-    <row r="11" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B11" s="2" t="s">
         <v>26</v>
       </c>
@@ -1204,7 +1213,7 @@
         <v>1147.7200000000003</v>
       </c>
     </row>
-    <row r="12" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B12" s="2" t="s">
         <v>27</v>
       </c>
@@ -1251,7 +1260,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="13" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B13" s="2" t="s">
         <v>28</v>
       </c>
@@ -1320,7 +1329,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="14" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B14" s="2" t="s">
         <v>29</v>
       </c>
@@ -1365,7 +1374,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="15" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B15" s="2" t="s">
         <v>30</v>
       </c>
@@ -1446,7 +1455,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="16" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B16" s="2" t="s">
         <v>31</v>
       </c>
@@ -1527,7 +1536,7 @@
         <v>80.720000000000255</v>
       </c>
     </row>
-    <row r="17" spans="2:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:25" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B17" s="2" t="s">
         <v>32</v>
       </c>
@@ -1598,64 +1607,64 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="2:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:25" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B18" s="2" t="s">
         <v>33</v>
       </c>
       <c r="K18" s="2">
-        <f>+K16+K17</f>
+        <f t="shared" ref="K18:S18" si="5">+K16+K17</f>
         <v>-90</v>
       </c>
       <c r="L18" s="2">
-        <f>+L16+L17</f>
+        <f t="shared" si="5"/>
         <v>-81</v>
       </c>
       <c r="M18" s="2">
-        <f>+M16+M17</f>
+        <f t="shared" si="5"/>
         <v>-71</v>
       </c>
       <c r="N18" s="2">
-        <f>+N16+N17</f>
+        <f t="shared" si="5"/>
         <v>-49</v>
       </c>
       <c r="O18" s="2">
-        <f>+O16+O17</f>
+        <f t="shared" si="5"/>
         <v>-43</v>
       </c>
       <c r="P18" s="2">
-        <f>+P16+P17</f>
+        <f t="shared" si="5"/>
         <v>-41</v>
       </c>
       <c r="Q18" s="2">
-        <f>+Q16+Q17</f>
+        <f t="shared" si="5"/>
         <v>19</v>
       </c>
       <c r="R18" s="2">
-        <f>+R16+R17</f>
+        <f t="shared" si="5"/>
         <v>47.460000000000036</v>
       </c>
       <c r="S18" s="2">
-        <f>+S16+S17</f>
+        <f t="shared" si="5"/>
         <v>59.259999999999991</v>
       </c>
       <c r="V18" s="2">
-        <f t="shared" ref="V18:Y18" si="5">+V16+V17</f>
+        <f t="shared" ref="V18:Y18" si="6">+V16+V17</f>
         <v>-240</v>
       </c>
       <c r="W18" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-373</v>
       </c>
       <c r="X18" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-250</v>
       </c>
       <c r="Y18" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>84.720000000000255</v>
       </c>
     </row>
-    <row r="19" spans="2:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:25" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B19" s="2" t="s">
         <v>34</v>
       </c>
@@ -1724,7 +1733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:25" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B20" s="2" t="s">
         <v>35</v>
       </c>
@@ -1753,96 +1762,96 @@
         <v>-98</v>
       </c>
       <c r="K20" s="2">
-        <f>+K18-K19</f>
+        <f t="shared" ref="K20:S20" si="7">+K18-K19</f>
         <v>-92</v>
       </c>
       <c r="L20" s="2">
-        <f>+L18-L19</f>
+        <f t="shared" si="7"/>
         <v>-81</v>
       </c>
       <c r="M20" s="2">
-        <f>+M18-M19</f>
+        <f t="shared" si="7"/>
         <v>-72</v>
       </c>
       <c r="N20" s="2">
-        <f>+N18-N19</f>
+        <f t="shared" si="7"/>
         <v>-49</v>
       </c>
       <c r="O20" s="2">
-        <f>+O18-O19</f>
+        <f t="shared" si="7"/>
         <v>-44</v>
       </c>
       <c r="P20" s="2">
-        <f>+P18-P19</f>
+        <f t="shared" si="7"/>
         <v>-42</v>
       </c>
       <c r="Q20" s="2">
-        <f>+Q18-Q19</f>
+        <f t="shared" si="7"/>
         <v>19</v>
       </c>
       <c r="R20" s="2">
-        <f>+R18-R19</f>
+        <f t="shared" si="7"/>
         <v>47.460000000000036</v>
       </c>
       <c r="S20" s="2">
-        <f>+S18-S19</f>
+        <f t="shared" si="7"/>
         <v>59.259999999999991</v>
       </c>
       <c r="V20" s="2">
-        <f t="shared" ref="V20:Y20" si="6">+V18-V19</f>
+        <f t="shared" ref="V20:Y20" si="8">+V18-V19</f>
         <v>-237</v>
       </c>
       <c r="W20" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-371</v>
       </c>
       <c r="X20" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-252</v>
       </c>
       <c r="Y20" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>83.720000000000255</v>
       </c>
     </row>
-    <row r="21" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B21" s="2" t="s">
         <v>36</v>
       </c>
       <c r="K21" s="1">
-        <f>+K20/K22</f>
+        <f t="shared" ref="K21:S21" si="9">+K20/K22</f>
         <v>-0.17726396917148363</v>
       </c>
       <c r="L21" s="1">
-        <f>+L20/L22</f>
+        <f t="shared" si="9"/>
         <v>-0.15428571428571428</v>
       </c>
       <c r="M21" s="1">
-        <f>+M20/M22</f>
+        <f t="shared" si="9"/>
         <v>-0.13610586011342155</v>
       </c>
       <c r="N21" s="1">
-        <f>+N20/N22</f>
+        <f t="shared" si="9"/>
         <v>-9.1295297626834443E-2</v>
       </c>
       <c r="O21" s="1">
-        <f>+O20/O22</f>
+        <f t="shared" si="9"/>
         <v>-8.1330868761552683E-2</v>
       </c>
       <c r="P21" s="1">
-        <f>+P20/P22</f>
+        <f t="shared" si="9"/>
         <v>-7.6782449725776969E-2</v>
       </c>
       <c r="Q21" s="1">
-        <f>+Q20/Q22</f>
+        <f t="shared" si="9"/>
         <v>3.2367972742759793E-2</v>
       </c>
       <c r="R21" s="1">
-        <f>+R20/R22</f>
+        <f t="shared" si="9"/>
         <v>8.0851788756388474E-2</v>
       </c>
       <c r="S21" s="1">
-        <f>+S20/S22</f>
+        <f t="shared" si="9"/>
         <v>0.100954003407155</v>
       </c>
       <c r="V21" s="1">
@@ -1862,7 +1871,7 @@
         <v>0.14509532062391725</v>
       </c>
     </row>
-    <row r="22" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B22" s="2" t="s">
         <v>1</v>
       </c>
@@ -1909,7 +1918,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="24" spans="2:25" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:25" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B24" s="4" t="s">
         <v>24</v>
       </c>
@@ -1924,15 +1933,15 @@
       <c r="K24" s="7"/>
       <c r="L24" s="7"/>
       <c r="M24" s="8">
-        <f t="shared" ref="M24:O24" si="7">+M9/I9-1</f>
+        <f t="shared" ref="M24:O24" si="10">+M9/I9-1</f>
         <v>0.44888888888888889</v>
       </c>
       <c r="N24" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.37234042553191493</v>
       </c>
       <c r="O24" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.3472041612483745</v>
       </c>
       <c r="P24" s="8">
@@ -1957,32 +1966,32 @@
         <v>0.28874514877102198</v>
       </c>
     </row>
-    <row r="25" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B25" t="s">
         <v>23</v>
       </c>
       <c r="J25" s="6">
-        <f t="shared" ref="J25:O25" si="8">+J11/J9</f>
+        <f t="shared" ref="J25:O25" si="11">+J11/J9</f>
         <v>0.20079787234042554</v>
       </c>
       <c r="K25" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.20546163849154747</v>
       </c>
       <c r="L25" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.21245421245421245</v>
       </c>
       <c r="M25" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.21267893660531698</v>
       </c>
       <c r="N25" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.2189922480620155</v>
       </c>
       <c r="O25" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.21814671814671815</v>
       </c>
       <c r="P25" s="6">
@@ -2002,23 +2011,23 @@
         <v>0.22999999999999998</v>
       </c>
       <c r="V25" s="6">
-        <f t="shared" ref="V25:Y25" si="9">+V11/V9</f>
+        <f t="shared" ref="V25:Y25" si="12">+V11/V9</f>
         <v>0.1841642228739003</v>
       </c>
       <c r="W25" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.18711094837056022</v>
       </c>
       <c r="X25" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.21578266494178525</v>
       </c>
       <c r="Y25" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.23041959445894403</v>
       </c>
     </row>
-    <row r="28" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B28" t="s">
         <v>37</v>
       </c>
@@ -2060,7 +2069,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="29" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B29" t="s">
         <v>38</v>
       </c>
@@ -2102,40 +2111,40 @@
         <v>-29</v>
       </c>
     </row>
-    <row r="30" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B30" t="s">
         <v>39</v>
       </c>
       <c r="J30" s="3">
-        <f>+J28+J29</f>
+        <f t="shared" ref="J30:Q30" si="13">+J28+J29</f>
         <v>-75</v>
       </c>
       <c r="K30" s="3">
-        <f>+K28+K29</f>
+        <f t="shared" si="13"/>
         <v>-29</v>
       </c>
       <c r="L30" s="3">
-        <f>+L28+L29</f>
+        <f t="shared" si="13"/>
         <v>-65</v>
       </c>
       <c r="M30" s="3">
-        <f>+M28+M29</f>
+        <f t="shared" si="13"/>
         <v>39</v>
       </c>
       <c r="N30" s="3">
-        <f>+N28+N29</f>
+        <f t="shared" si="13"/>
         <v>47</v>
       </c>
       <c r="O30" s="3">
-        <f>+O28+O29</f>
+        <f t="shared" si="13"/>
         <v>81</v>
       </c>
       <c r="P30" s="3">
-        <f>+P28+P29</f>
+        <f t="shared" si="13"/>
         <v>-33</v>
       </c>
       <c r="Q30" s="3">
-        <f>+Q28+Q29</f>
+        <f t="shared" si="13"/>
         <v>108</v>
       </c>
       <c r="V30">
